--- a/Excel_sample/NHI.xlsx
+++ b/Excel_sample/NHI.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="第1頁" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>美商德盟全球凱展股份有限公司台灣分</t>
   </si>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>出生年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核對年月:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,7 +448,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -486,9 +482,7 @@
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
